--- a/upcoming_events_bets.xlsx
+++ b/upcoming_events_bets.xlsx
@@ -523,7 +523,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C2" s="11" t="n">
-        <v>21.22</v>
+        <v>26.45</v>
       </c>
       <c r="D2" s="12" t="inlineStr">
         <is>
@@ -640,10 +640,10 @@
         </is>
       </c>
       <c r="F2" s="12" t="n">
-        <v>-128.21</v>
+        <v>105</v>
       </c>
       <c r="G2" s="13" t="n">
-        <v>68.09999999999999</v>
+        <v>61.68</v>
       </c>
       <c r="H2" s="14" t="inlineStr">
         <is>
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="J2" s="14" t="n">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>31.9</v>
+        <v>38.32</v>
       </c>
     </row>
     <row r="3">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C3" s="11" t="n">
-        <v>1.37</v>
+        <v>7.14</v>
       </c>
       <c r="D3" s="12" t="inlineStr">
         <is>
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="F3" s="12" t="n">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="G3" s="13" t="n">
-        <v>46.93</v>
+        <v>43.91</v>
       </c>
       <c r="H3" s="14" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         <v>-109.89</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>53.07</v>
+        <v>56.09</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="C4" s="11" t="n">
-        <v>23.48</v>
+        <v>22.45</v>
       </c>
       <c r="D4" s="12" t="inlineStr">
         <is>
@@ -734,10 +734,10 @@
         </is>
       </c>
       <c r="F4" s="12" t="n">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G4" s="13" t="n">
-        <v>50.61</v>
+        <v>51.02</v>
       </c>
       <c r="H4" s="14" t="inlineStr">
         <is>
@@ -753,22 +753,22 @@
         <v>150</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>49.39</v>
+        <v>48.98</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="inlineStr">
         <is>
-          <t>a4c655ccb620e21246e898e3899c3aee</t>
+          <t>037c13a4010b16c3963168d10f8427f2</t>
         </is>
       </c>
       <c r="B5" s="10" t="inlineStr">
         <is>
-          <t>soccer_germany_bundesliga2</t>
+          <t>soccer_belgium_first_div</t>
         </is>
       </c>
       <c r="C5" s="11" t="n">
-        <v>20.99</v>
+        <v>0.08</v>
       </c>
       <c r="D5" s="12" t="inlineStr">
         <is>
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="F5" s="12" t="n">
-        <v>140</v>
+        <v>-131.58</v>
       </c>
       <c r="G5" s="13" t="n">
-        <v>50.41</v>
+        <v>56.86</v>
       </c>
       <c r="H5" s="14" t="inlineStr">
         <is>
@@ -797,29 +797,29 @@
         </is>
       </c>
       <c r="J5" s="14" t="n">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>49.59</v>
+        <v>43.14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="inlineStr">
         <is>
-          <t>f5c150694939a47afa4a4f26dd87a11e</t>
+          <t>a4c655ccb620e21246e898e3899c3aee</t>
         </is>
       </c>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>soccer_spain_la_liga</t>
+          <t>soccer_germany_bundesliga2</t>
         </is>
       </c>
       <c r="C6" s="11" t="n">
-        <v>30.91</v>
+        <v>20</v>
       </c>
       <c r="D6" s="12" t="inlineStr">
         <is>
-          <t>Betfair Sportsbook</t>
+          <t>Grosvenor</t>
         </is>
       </c>
       <c r="E6" s="12" t="inlineStr">
@@ -828,14 +828,14 @@
         </is>
       </c>
       <c r="F6" s="12" t="n">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="G6" s="13" t="n">
-        <v>45.45</v>
+        <v>50</v>
       </c>
       <c r="H6" s="14" t="inlineStr">
         <is>
-          <t>Casumo</t>
+          <t>Matchbook</t>
         </is>
       </c>
       <c r="I6" s="14" t="inlineStr">
@@ -847,7 +847,54 @@
         <v>140</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>54.55</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="inlineStr">
+        <is>
+          <t>f5c150694939a47afa4a4f26dd87a11e</t>
+        </is>
+      </c>
+      <c r="B7" s="10" t="inlineStr">
+        <is>
+          <t>soccer_spain_la_liga</t>
+        </is>
+      </c>
+      <c r="C7" s="11" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="D7" s="12" t="inlineStr">
+        <is>
+          <t>Betfair Sportsbook</t>
+        </is>
+      </c>
+      <c r="E7" s="12" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="F7" s="12" t="n">
+        <v>175</v>
+      </c>
+      <c r="G7" s="13" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="H7" s="14" t="inlineStr">
+        <is>
+          <t>Casumo</t>
+        </is>
+      </c>
+      <c r="I7" s="14" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="J7" s="14" t="n">
+        <v>140</v>
+      </c>
+      <c r="K7" s="15" t="n">
+        <v>53.4</v>
       </c>
     </row>
   </sheetData>
